--- a/FILE.xlsx
+++ b/FILE.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">11.08.2016
+          <t xml:space="preserve">27.01.2016
 </t>
         </is>
       </c>
@@ -569,7 +569,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">24.01.1989
+          <t xml:space="preserve">27.01.1989
 </t>
         </is>
       </c>
@@ -623,7 +623,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">23.01.1986
+          <t xml:space="preserve">27.01.1986
 </t>
         </is>
       </c>
@@ -641,7 +641,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>23.01.2000</t>
+          <t>20.01.2000</t>
         </is>
       </c>
     </row>
